--- a/Data/Commodore 64 C/250466/Data_250466.xlsx
+++ b/Data/Commodore 64 C/250466/Data_250466.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 C\250466\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F9FC14-5607-4F20-838C-9D4217B66C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781BC842-9020-4323-BE09-B763BA1B1CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Images" sheetId="5" r:id="rId1"/>
+    <sheet name="Board images" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Component local files" sheetId="7" r:id="rId3"/>
     <sheet name="Component links" sheetId="8" r:id="rId4"/>
@@ -643,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1001,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
